--- a/datos_fbref/CARTELERA_PROXIMOS_Eredivisie.xlsx
+++ b/datos_fbref/CARTELERA_PROXIMOS_Eredivisie.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -883,34 +883,34 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>20:00 (16:00)</t>
+          <t>18:45 (14:45)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Fortuna Sittard Stadion</t>
+          <t>Philips Stadion</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -939,24 +939,24 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18:45 (14:45)</t>
+          <t>20:00 (16:00)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Philips Stadion</t>
+          <t>Rat Verlegh Stadion</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -985,24 +985,24 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>20:00 (16:00)</t>
+          <t>21:00 (17:00)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Rat Verlegh Stadion</t>
+          <t>Johan Cruijff Arena</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1021,34 +1021,34 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21:00 (17:00)</t>
+          <t>12:15 (08:15)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Johan Cruijff Arena</t>
+          <t>De Grolsch Veste</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1077,24 +1077,24 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12:15 (08:15)</t>
+          <t>14:30 (10:30)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>De Grolsch Veste</t>
+          <t>Stadion Galgenwaard</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1128,19 +1128,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Stadion Galgenwaard</t>
+          <t>De Adelaarshorst</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1169,24 +1169,24 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>14:30 (10:30)</t>
+          <t>16:45 (12:45)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>De Adelaarshorst</t>
+          <t>AFAS Stadion</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -1215,24 +1215,24 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>16:45 (12:45)</t>
+          <t>20:00 (16:00)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>AFAS Stadion</t>
+          <t>Stadion Feijenoord</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1244,63 +1244,63 @@
       <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2026-02-22</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>20:00 (16:00)</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Feyenoord</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Telstar</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Stadion Feijenoord</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>711 Stadion</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1311,34 +1311,34 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>20:00 (16:00)</t>
+          <t>16:30 (12:30)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>711 Stadion</t>
+          <t>Abe Lenstra Stadion</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -1367,24 +1367,24 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>16:30 (12:30)</t>
+          <t>18:45 (14:45)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Abe Lenstra Stadion</t>
+          <t>Erve Asito</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -1413,24 +1413,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>18:45 (14:45)</t>
+          <t>21:00 (17:00)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Erve Asito</t>
+          <t>Goffertstadion</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -1449,34 +1449,34 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>21:00 (17:00)</t>
+          <t>12:15 (08:15)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Goffertstadion</t>
+          <t>MAC³PARK Stadion</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -1505,24 +1505,24 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12:15 (08:15)</t>
+          <t>14:30 (10:30)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>MAC³PARK Stadion</t>
+          <t>De Grolsch Veste</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -1556,19 +1556,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>De Grolsch Veste</t>
+          <t>Kras Stadion</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -1597,24 +1597,24 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14:30 (10:30)</t>
+          <t>16:45 (12:45)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Kras Stadion</t>
+          <t>Stadion Galgenwaard</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -1643,24 +1643,24 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>16:45 (12:45)</t>
+          <t>20:00 (16:00)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Stadion Galgenwaard</t>
+          <t>Van Donge &amp; De Roo Stadion</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -1672,63 +1672,63 @@
       <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2026-03-01</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>20:00 (16:00)</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Excelsior</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Go Ahead Eagles</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Van Donge &amp; De Roo Stadion</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Heracles Almelo</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Erve Asito</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1739,34 +1739,34 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>20:00 (16:00)</t>
+          <t>16:30 (12:30)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Erve Asito</t>
+          <t>Euroborg</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -1795,24 +1795,24 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>16:30 (12:30)</t>
+          <t>20:00 (16:00)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Euroborg</t>
+          <t>Philips Stadion</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -1841,24 +1841,24 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>20:00 (16:00)</t>
+          <t>21:00 (17:00)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Philips Stadion</t>
+          <t>Van Donge &amp; De Roo Stadion</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -1877,34 +1877,34 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>21:00 (17:00)</t>
+          <t>12:15 (08:15)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Van Donge &amp; De Roo Stadion</t>
+          <t>Sparta-Stadion Het Kasteel</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -1933,24 +1933,24 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>12:15 (08:15)</t>
+          <t>14:30 (10:30)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Sparta-Stadion Het Kasteel</t>
+          <t>Fortuna Sittard Stadion</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -1984,19 +1984,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Fortuna Sittard Stadion</t>
+          <t>De Adelaarshorst</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2025,24 +2025,24 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>14:30 (10:30)</t>
+          <t>16:45 (12:45)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>De Adelaarshorst</t>
+          <t>Rat Verlegh Stadion</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2071,24 +2071,24 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>16:45 (12:45)</t>
+          <t>20:00 (16:00)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Rat Verlegh Stadion</t>
+          <t>Goffertstadion</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -2100,63 +2100,63 @@
       <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2026-03-08</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>20:00 (16:00)</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>NEC Nijmegen</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Volendam</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Goffertstadion</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>MAC³PARK Stadion</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2167,34 +2167,34 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>20:00 (16:00)</t>
+          <t>16:30 (12:30)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>MAC³PARK Stadion</t>
+          <t>Kras Stadion</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -2223,24 +2223,24 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>16:30 (12:30)</t>
+          <t>18:45 (14:45)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Kras Stadion</t>
+          <t>Philips Stadion</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -2269,24 +2269,24 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>18:45 (14:45)</t>
+          <t>20:00 (16:00)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Philips Stadion</t>
+          <t>Abe Lenstra Stadion</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -2315,24 +2315,24 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>20:00 (16:00)</t>
+          <t>21:00 (17:00)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Abe Lenstra Stadion</t>
+          <t>Johan Cruijff Arena</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -2351,34 +2351,34 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>21:00 (17:00)</t>
+          <t>12:15 (08:15)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Johan Cruijff Arena</t>
+          <t>De Grolsch Veste</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -2407,24 +2407,24 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12:15 (08:15)</t>
+          <t>14:30 (10:30)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>De Grolsch Veste</t>
+          <t>Stadion Feijenoord</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -2458,19 +2458,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Stadion Feijenoord</t>
+          <t>AFAS Stadion</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -2499,24 +2499,24 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14:30 (10:30)</t>
+          <t>16:45 (12:45)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>AFAS Stadion</t>
+          <t>De Adelaarshorst</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -2528,63 +2528,63 @@
       <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2026-03-15</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>16:45 (12:45)</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Go Ahead Eagles</t>
-        </is>
-      </c>
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>NAC Breda</t>
-        </is>
-      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>De Adelaarshorst</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>20:00 (16:00)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Heracles Almelo</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Erve Asito</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -2595,34 +2595,34 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>20:00 (16:00)</t>
+          <t>16:30 (12:30)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Erve Asito</t>
+          <t>Fortuna Sittard Stadion</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -2651,24 +2651,24 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>16:30 (12:30)</t>
+          <t>18:45 (14:45)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Fortuna Sittard Stadion</t>
+          <t>Sparta-Stadion Het Kasteel</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -2697,24 +2697,24 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>18:45 (14:45)</t>
+          <t>21:00 (17:00)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Sparta-Stadion Het Kasteel</t>
+          <t>MAC³PARK Stadion</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -2733,34 +2733,34 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>21:00 (17:00)</t>
+          <t>12:15 (08:15)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>MAC³PARK Stadion</t>
+          <t>Goffertstadion</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -2789,24 +2789,24 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>12:15 (08:15)</t>
+          <t>14:30 (10:30)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Goffertstadion</t>
+          <t>Stadion Feijenoord</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -2840,19 +2840,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Stadion Feijenoord</t>
+          <t>Stadion Galgenwaard</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -2881,24 +2881,24 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14:30 (10:30)</t>
+          <t>16:45 (12:45)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Stadion Galgenwaard</t>
+          <t>Euroborg</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -2927,24 +2927,24 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>16:45 (12:45)</t>
+          <t>20:00 (16:00)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Euroborg</t>
+          <t>711 Stadion</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -2956,63 +2956,63 @@
       <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>2026-03-22</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>20:00 (16:00)</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Telstar</t>
-        </is>
-      </c>
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2026-04-04</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>16:30 (11:30)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>PSV</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>711 Stadion</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Philips Stadion</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -3033,24 +3033,24 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>16:30 (11:30)</t>
+          <t>18:45 (13:45)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Philips Stadion</t>
+          <t>AFAS Stadion</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -3084,19 +3084,19 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>AFAS Stadion</t>
+          <t>711 Stadion</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -3125,24 +3125,24 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>18:45 (13:45)</t>
+          <t>21:00 (16:00)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>711 Stadion</t>
+          <t>Johan Cruijff Arena</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -3176,19 +3176,19 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Johan Cruijff Arena</t>
+          <t>Van Donge &amp; De Roo Stadion</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -3207,34 +3207,34 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>21:00 (16:00)</t>
+          <t>12:15 (07:15)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Van Donge &amp; De Roo Stadion</t>
+          <t>De Adelaarshorst</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -3263,24 +3263,24 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>12:15 (07:15)</t>
+          <t>14:30 (09:30)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>De Adelaarshorst</t>
+          <t>Kras Stadion</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -3314,19 +3314,19 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Kras Stadion</t>
+          <t>Abe Lenstra Stadion</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -3355,24 +3355,24 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>14:30 (09:30)</t>
+          <t>16:45 (11:45)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Abe Lenstra Stadion</t>
+          <t>Rat Verlegh Stadion</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -3384,63 +3384,63 @@
       <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>2026-04-05</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>16:45 (11:45)</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>NAC Breda</t>
-        </is>
-      </c>
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Sparta Rotterdam</t>
-        </is>
-      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Rat Verlegh Stadion</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2026-04-10</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>20:00 (15:00)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Volendam</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>De Grolsch Veste</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3451,34 +3451,34 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>20:00 (15:00)</t>
+          <t>16:30 (11:30)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>De Grolsch Veste</t>
+          <t>Stadion Galgenwaard</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -3507,24 +3507,24 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>16:30 (11:30)</t>
+          <t>18:45 (13:45)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Stadion Galgenwaard</t>
+          <t>Sparta-Stadion Het Kasteel</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -3553,24 +3553,24 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>18:45 (13:45)</t>
+          <t>20:00 (15:00)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Sparta-Stadion Het Kasteel</t>
+          <t>Euroborg</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -3599,24 +3599,24 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>20:00 (15:00)</t>
+          <t>21:00 (16:00)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Euroborg</t>
+          <t>Erve Asito</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -3635,34 +3635,34 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>21:00 (16:00)</t>
+          <t>12:15 (07:15)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Erve Asito</t>
+          <t>Fortuna Sittard Stadion</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -3691,24 +3691,24 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>12:15 (07:15)</t>
+          <t>14:30 (09:30)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Fortuna Sittard Stadion</t>
+          <t>Goffertstadion</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -3742,19 +3742,19 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Goffertstadion</t>
+          <t>MAC³PARK Stadion</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -3783,24 +3783,24 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>14:30 (09:30)</t>
+          <t>16:45 (11:45)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>MAC³PARK Stadion</t>
+          <t>AFAS Stadion</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -3812,63 +3812,63 @@
       <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>2026-04-12</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>16:45 (11:45)</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>AZ Alkmaar</t>
-        </is>
-      </c>
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Heerenveen</t>
-        </is>
-      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>AFAS Stadion</t>
-        </is>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2026-04-22</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>20:00 (15:00)</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>711 Stadion</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -3879,34 +3879,34 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>20:00 (15:00)</t>
+          <t>18:45 (13:45)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>711 Stadion</t>
+          <t>De Adelaarshorst</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -3935,24 +3935,24 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>18:45 (13:45)</t>
+          <t>21:00 (16:00)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>De Adelaarshorst</t>
+          <t>Philips Stadion</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -3971,34 +3971,34 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2026-04-23</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>21:00 (16:00)</t>
+          <t>16:30 (11:30)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Philips Stadion</t>
+          <t>Stadion Feijenoord</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -4027,24 +4027,24 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>16:30 (11:30)</t>
+          <t>18:45 (13:45)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Stadion Feijenoord</t>
+          <t>Abe Lenstra Stadion</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -4073,24 +4073,24 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>18:45 (13:45)</t>
+          <t>20:00 (15:00)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Abe Lenstra Stadion</t>
+          <t>Rat Verlegh Stadion</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -4119,24 +4119,24 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>20:00 (15:00)</t>
+          <t>21:00 (16:00)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Rat Verlegh Stadion</t>
+          <t>De Grolsch Veste</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -4155,34 +4155,34 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>21:00 (16:00)</t>
+          <t>12:15 (07:15)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>De Grolsch Veste</t>
+          <t>Van Donge &amp; De Roo Stadion</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -4211,24 +4211,24 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>12:15 (07:15)</t>
+          <t>14:30 (09:30)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Van Donge &amp; De Roo Stadion</t>
+          <t>Erve Asito</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -4240,63 +4240,63 @@
       <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>2026-04-26</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>14:30 (09:30)</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Heracles Almelo</t>
-        </is>
-      </c>
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Volendam</t>
-        </is>
-      </c>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Erve Asito</t>
-        </is>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2026-05-02</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>16:30 (11:30)</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Stadion Galgenwaard</t>
+        </is>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4317,24 +4317,24 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>16:30 (11:30)</t>
+          <t>18:45 (13:45)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Stadion Galgenwaard</t>
+          <t>Euroborg</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -4363,24 +4363,24 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>18:45 (13:45)</t>
+          <t>20:00 (15:00)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Euroborg</t>
+          <t>Johan Cruijff Arena</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -4409,24 +4409,24 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>20:00 (15:00)</t>
+          <t>21:00 (16:00)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Johan Cruijff Arena</t>
+          <t>Goffertstadion</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -4445,34 +4445,34 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>21:00 (16:00)</t>
+          <t>12:15 (07:15)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Goffertstadion</t>
+          <t>Kras Stadion</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -4501,24 +4501,24 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>12:15 (07:15)</t>
+          <t>14:30 (09:30)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Kras Stadion</t>
+          <t>Fortuna Sittard Stadion</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -4552,19 +4552,19 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Fortuna Sittard Stadion</t>
+          <t>MAC³PARK Stadion</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -4593,24 +4593,24 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>14:30 (09:30)</t>
+          <t>16:45 (11:45)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>MAC³PARK Stadion</t>
+          <t>Sparta-Stadion Het Kasteel</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -4644,19 +4644,19 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Sparta-Stadion Het Kasteel</t>
+          <t>AFAS Stadion</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -4668,63 +4668,63 @@
       <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>2026-05-03</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2026-05-10</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>16:45 (11:45)</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>AZ Alkmaar</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>Twente</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>AFAS Stadion</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr"/>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>De Grolsch Veste</t>
+        </is>
+      </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -4750,19 +4750,19 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>De Grolsch Veste</t>
+          <t>Fortuna Sittard Stadion</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -4796,19 +4796,19 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Fortuna Sittard Stadion</t>
+          <t>Johan Cruijff Arena</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -4842,19 +4842,19 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Johan Cruijff Arena</t>
+          <t>De Adelaarshorst</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -4888,19 +4888,19 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>De Adelaarshorst</t>
+          <t>Rat Verlegh Stadion</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -4934,19 +4934,19 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Rat Verlegh Stadion</t>
+          <t>Stadion Feijenoord</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -4980,19 +4980,19 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Stadion Feijenoord</t>
+          <t>711 Stadion</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -5026,19 +5026,19 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>711 Stadion</t>
+          <t>Euroborg</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -5072,19 +5072,19 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Euroborg</t>
+          <t>Van Donge &amp; De Roo Stadion</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -5096,63 +5096,63 @@
       <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>2026-05-10</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>16:45 (11:45)</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2026-05-17</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>14:30 (09:30)</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
         <is>
           <t>Excelsior</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Volendam</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>Van Donge &amp; De Roo Stadion</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr"/>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Sparta-Stadion Het Kasteel</t>
+        </is>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Head-to-Head</t>
+        </is>
+      </c>
       <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
@@ -5178,19 +5178,19 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Sparta-Stadion Het Kasteel</t>
+          <t>Stadion Galgenwaard</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -5224,19 +5224,19 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Stadion Galgenwaard</t>
+          <t>Goffertstadion</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -5270,19 +5270,19 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Goffertstadion</t>
+          <t>AFAS Stadion</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -5316,19 +5316,19 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>AFAS Stadion</t>
+          <t>Erve Asito</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -5362,19 +5362,19 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Erve Asito</t>
+          <t>Kras Stadion</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -5408,19 +5408,19 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Kras Stadion</t>
+          <t>MAC³PARK Stadion</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -5454,19 +5454,19 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>PSV</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>MAC³PARK Stadion</t>
+          <t>Philips Stadion</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -5500,19 +5500,19 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>PSV</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Philips Stadion</t>
+          <t>Abe Lenstra Stadion</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -5522,52 +5522,6 @@
         </is>
       </c>
       <c r="L137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>2026-05-17</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>14:30 (09:30)</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Heerenveen</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Ajax</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>Abe Lenstra Stadion</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>Head-to-Head</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
